--- a/LeetCode/Leetcode刷题List.xlsx
+++ b/LeetCode/Leetcode刷题List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MrFeng/Projects/Leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MrFeng/Projects/note/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED052031-F759-CA41-AE82-0BB78F179CE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F3985C-62E1-FA4B-A8A4-1F9B9DBC5241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="1840" windowWidth="28800" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="277">
   <si>
     <t>算法训练营怎么玩</t>
   </si>
@@ -1075,6 +1075,14 @@
   </si>
   <si>
     <t>1个single, other triple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两个有序链表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1238,7 +1246,787 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="140">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2130,10 +2918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K208"/>
+  <dimension ref="A1:K216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="K199" sqref="K199"/>
+      <selection activeCell="N187" sqref="N187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -3884,11 +4672,11 @@
         <v>43889</v>
       </c>
       <c r="H74" s="5">
-        <f t="shared" ref="H74:H205" si="4">IF(ISBLANK(G74),"",G74+1)</f>
+        <f t="shared" ref="H74:H213" si="4">IF(ISBLANK(G74),"",G74+1)</f>
         <v>43890</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" ref="I74:I205" si="5">IF(ISBLANK(G74),"",G74+7)</f>
+        <f t="shared" ref="I74:I213" si="5">IF(ISBLANK(G74),"",G74+7)</f>
         <v>43896</v>
       </c>
       <c r="J74" s="5"/>
@@ -6283,7 +7071,7 @@
         <v>43946</v>
       </c>
       <c r="I177" s="5">
-        <f t="shared" ref="I177:I193" si="27">IF(ISBLANK(G177),"",G177+7)</f>
+        <f t="shared" ref="I177:I201" si="27">IF(ISBLANK(G177),"",G177+7)</f>
         <v>43928</v>
       </c>
       <c r="J177" s="5"/>
@@ -6331,7 +7119,7 @@
         <v>43923</v>
       </c>
       <c r="H179" s="5">
-        <f t="shared" ref="H179:H193" si="30">IF(ISBLANK(G179),"",G179+1)</f>
+        <f t="shared" ref="H179:H201" si="30">IF(ISBLANK(G179),"",G179+1)</f>
         <v>43924</v>
       </c>
       <c r="I179" s="5">
@@ -6646,189 +7434,135 @@
         <v>43950</v>
       </c>
       <c r="H191" s="5">
-        <f t="shared" ref="H191" si="33">IF(ISBLANK(G191),"",G191+1)</f>
+        <f t="shared" ref="H191:H199" si="33">IF(ISBLANK(G191),"",G191+1)</f>
         <v>43951</v>
       </c>
       <c r="I191" s="5">
-        <f t="shared" ref="I191" si="34">IF(ISBLANK(G191),"",G191+7)</f>
+        <f t="shared" ref="I191:I199" si="34">IF(ISBLANK(G191),"",G191+7)</f>
         <v>43957</v>
       </c>
       <c r="J191" s="5"/>
     </row>
     <row r="192" spans="1:10">
-      <c r="A192" s="1"/>
-      <c r="H192" s="5" t="str">
-        <f t="shared" ref="H192" si="35">IF(ISBLANK(G192),"",G192+1)</f>
-        <v/>
-      </c>
-      <c r="I192" s="5" t="str">
-        <f t="shared" ref="I192" si="36">IF(ISBLANK(G192),"",G192+7)</f>
-        <v/>
+      <c r="A192" s="1">
+        <v>202</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G192" s="4">
+        <v>43951</v>
+      </c>
+      <c r="H192" s="5">
+        <f t="shared" ref="H192:H193" si="35">IF(ISBLANK(G192),"",G192+1)</f>
+        <v>43952</v>
+      </c>
+      <c r="I192" s="5">
+        <f t="shared" ref="I192:I193" si="36">IF(ISBLANK(G192),"",G192+7)</f>
+        <v>43958</v>
       </c>
       <c r="J192" s="5"/>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="1"/>
-      <c r="H193" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="I193" s="5" t="str">
-        <f t="shared" si="27"/>
-        <v/>
+      <c r="A193" s="1">
+        <v>21</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G193" s="4">
+        <v>43952</v>
+      </c>
+      <c r="H193" s="5">
+        <f t="shared" si="35"/>
+        <v>43953</v>
+      </c>
+      <c r="I193" s="5">
+        <f t="shared" si="36"/>
+        <v>43959</v>
       </c>
       <c r="J193" s="5"/>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="1">
-        <v>237</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D194" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G194" s="4">
-        <v>43920</v>
-      </c>
-      <c r="H194" s="5">
-        <f t="shared" si="4"/>
-        <v>43921</v>
-      </c>
-      <c r="I194" s="5">
-        <f t="shared" si="5"/>
-        <v>43927</v>
+      <c r="A194" s="1"/>
+      <c r="H194" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I194" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="J194" s="5"/>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="12">
-        <v>136</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C195" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D195" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E195" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="F195" s="14"/>
-      <c r="G195" s="15">
-        <v>43920</v>
-      </c>
-      <c r="H195" s="16">
-        <f t="shared" si="4"/>
-        <v>43921</v>
-      </c>
-      <c r="I195" s="16">
-        <f t="shared" si="5"/>
-        <v>43927</v>
-      </c>
-      <c r="J195" s="16"/>
-      <c r="K195" s="14"/>
+      <c r="A195" s="1"/>
+      <c r="H195" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I195" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J195" s="5"/>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B196" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D196" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E196" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G196" s="4">
-        <v>43950</v>
-      </c>
-      <c r="H196" s="5">
-        <f t="shared" ref="H196" si="37">IF(ISBLANK(G196),"",G196+1)</f>
-        <v>43951</v>
-      </c>
-      <c r="I196" s="5">
-        <f t="shared" ref="I196" si="38">IF(ISBLANK(G196),"",G196+7)</f>
-        <v>43957</v>
+      <c r="A196" s="1"/>
+      <c r="H196" s="5" t="str">
+        <f t="shared" ref="H196:H197" si="37">IF(ISBLANK(G196),"",G196+1)</f>
+        <v/>
+      </c>
+      <c r="I196" s="5" t="str">
+        <f t="shared" ref="I196:I197" si="38">IF(ISBLANK(G196),"",G196+7)</f>
+        <v/>
       </c>
       <c r="J196" s="5"/>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="1">
-        <v>137</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E197" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G197" s="4">
-        <v>43920</v>
-      </c>
-      <c r="H197" s="5">
-        <v>43950</v>
-      </c>
-      <c r="I197" s="5">
-        <f t="shared" si="5"/>
-        <v>43927</v>
+      <c r="A197" s="1"/>
+      <c r="H197" s="5" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I197" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="J197" s="5"/>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="1">
-        <v>260</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G198" s="4">
-        <v>43921</v>
-      </c>
-      <c r="H198" s="5">
-        <v>43950</v>
-      </c>
-      <c r="I198" s="5">
-        <f t="shared" si="5"/>
-        <v>43928</v>
+      <c r="A198" s="1"/>
+      <c r="H198" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I198" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v/>
       </c>
       <c r="J198" s="5"/>
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="1"/>
-      <c r="B199" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="H199" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="I199" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J199" s="5"/>
@@ -6836,11 +7570,11 @@
     <row r="200" spans="1:11">
       <c r="A200" s="1"/>
       <c r="H200" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H200" si="39">IF(ISBLANK(G200),"",G200+1)</f>
         <v/>
       </c>
       <c r="I200" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I200" si="40">IF(ISBLANK(G200),"",G200+7)</f>
         <v/>
       </c>
       <c r="J200" s="5"/>
@@ -6848,384 +7582,602 @@
     <row r="201" spans="1:11">
       <c r="A201" s="1"/>
       <c r="H201" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I201" s="5" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="J201" s="5"/>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202" s="1">
+        <v>237</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G202" s="4">
+        <v>43920</v>
+      </c>
+      <c r="H202" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I201" s="5" t="str">
+        <v>43921</v>
+      </c>
+      <c r="I202" s="5">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J201" s="5"/>
-    </row>
-    <row r="202" spans="1:11">
-      <c r="A202" s="1"/>
-      <c r="B202" s="17"/>
-      <c r="H202" s="5" t="str">
+        <v>43927</v>
+      </c>
+      <c r="J202" s="5"/>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203" s="12">
+        <v>136</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D203" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E203" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F203" s="14"/>
+      <c r="G203" s="15">
+        <v>43920</v>
+      </c>
+      <c r="H203" s="16">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I202" s="5" t="str">
+        <v>43921</v>
+      </c>
+      <c r="I203" s="16">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J202" s="5"/>
-    </row>
-    <row r="203" spans="1:11">
-      <c r="A203" s="1"/>
-      <c r="H203" s="5" t="str">
+        <v>43927</v>
+      </c>
+      <c r="J203" s="16"/>
+      <c r="K203" s="14"/>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B204" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G204" s="4">
+        <v>43950</v>
+      </c>
+      <c r="H204" s="5">
+        <f t="shared" ref="H204" si="41">IF(ISBLANK(G204),"",G204+1)</f>
+        <v>43951</v>
+      </c>
+      <c r="I204" s="5">
+        <f t="shared" ref="I204" si="42">IF(ISBLANK(G204),"",G204+7)</f>
+        <v>43957</v>
+      </c>
+      <c r="J204" s="5"/>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205" s="1">
+        <v>137</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E205" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G205" s="4">
+        <v>43920</v>
+      </c>
+      <c r="H205" s="5">
+        <v>43950</v>
+      </c>
+      <c r="I205" s="5">
+        <f t="shared" si="5"/>
+        <v>43927</v>
+      </c>
+      <c r="J205" s="5"/>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206" s="1">
+        <v>260</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G206" s="4">
+        <v>43921</v>
+      </c>
+      <c r="H206" s="5">
+        <v>43950</v>
+      </c>
+      <c r="I206" s="5">
+        <f t="shared" si="5"/>
+        <v>43928</v>
+      </c>
+      <c r="J206" s="5"/>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207" s="1"/>
+      <c r="B207" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H207" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I203" s="5" t="str">
+      <c r="I207" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J203" s="5"/>
-    </row>
-    <row r="204" spans="1:11">
-      <c r="A204" s="1"/>
-      <c r="H204" s="5" t="str">
+      <c r="J207" s="5"/>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208" s="1"/>
+      <c r="H208" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I204" s="5" t="str">
+      <c r="I208" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J204" s="5"/>
-    </row>
-    <row r="205" spans="1:11">
-      <c r="A205" s="1"/>
-      <c r="H205" s="5" t="str">
+      <c r="J208" s="5"/>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209" s="1"/>
+      <c r="H209" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I205" s="5" t="str">
+      <c r="I209" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J205" s="5"/>
-    </row>
-    <row r="208" spans="1:11">
-      <c r="A208" s="9"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="6"/>
-      <c r="E208" s="6"/>
-      <c r="G208" s="4"/>
+      <c r="J209" s="5"/>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210" s="1"/>
+      <c r="B210" s="17"/>
+      <c r="H210" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I210" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J210" s="5"/>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211" s="1"/>
+      <c r="H211" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I211" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J211" s="5"/>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212" s="1"/>
+      <c r="H212" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I212" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213" s="1"/>
+      <c r="H213" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I213" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J213" s="5"/>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216" s="9"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="6"/>
+      <c r="E216" s="6"/>
+      <c r="G216" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J4:K5 J8:K8 G6:K7 G10:K13 G57:K66 I54:K56 G23:K31 I22:K22 G167:K167 I165:K165 G199:K205 H166:K166 G15:K21 H14:K14 G163:K164 G78:K80 I70:K71 K69 I67:K68 G33:K48 H32:K32 G109:K109 H168:K175 H194:K194 G50:K53 H49:K49 H9:K9 I73:K77 J72:K72 I197:K198">
-    <cfRule type="cellIs" dxfId="61" priority="64" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="J4:K5 J8:K8 G6:K7 G10:K13 G57:K66 I54:K56 G23:K31 I22:K22 G167:K167 I165:K165 G207:K213 H166:K166 G15:K21 H14:K14 G163:K164 G78:K80 I70:K71 K69 I67:K68 G33:K48 H32:K32 G109:K109 H168:K175 H202:K202 G50:K53 H49:K49 H9:K9 I73:K77 J72:K72 I205:K206">
+    <cfRule type="cellIs" dxfId="139" priority="72" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:K107 G137:K137">
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="138" priority="71" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:K106">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="137" priority="70" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G105:K105 H104:K104">
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="136" priority="69" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:K102 H103:K103">
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="135" priority="68" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G100:K101">
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="134" priority="67" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G98:K99">
-    <cfRule type="cellIs" dxfId="55" priority="58" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="133" priority="66" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G96:K97">
-    <cfRule type="cellIs" dxfId="54" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="132" priority="65" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G94:K95">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="131" priority="64" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G93:K93 H92:K92">
-    <cfRule type="cellIs" dxfId="52" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="130" priority="63" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:K90 I91:K91">
-    <cfRule type="cellIs" dxfId="51" priority="54" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="129" priority="62" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88:K89">
-    <cfRule type="cellIs" dxfId="50" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="128" priority="61" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G86:K86 H87:K87">
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="127" priority="60" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G84:K85">
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="126" priority="59" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G82:K83">
-    <cfRule type="cellIs" dxfId="47" priority="50" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="125" priority="58" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G81:K81">
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="124" priority="56" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G114:K115">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="123" priority="55" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G113:K113">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="122" priority="54" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:K112">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="121" priority="53" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G110:K110">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="120" priority="52" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108:K108">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="119" priority="50" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G136:K136 H135:K135">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="118" priority="49" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G134:K134">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="117" priority="48" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G132:K133">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="116" priority="47" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G131:K131">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="115" priority="46" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G129:K130">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="114" priority="45" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128:K128">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="113" priority="44" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G126:K127">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="112" priority="43" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:K125">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="111" priority="42" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124:K124 H123:K123">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="110" priority="41" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:K122">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="40" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H121:K121 I120:K120">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="108" priority="39" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G119:K119">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="107" priority="38" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G117:K118">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="106" priority="37" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G116:K116">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="105" priority="36" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176:K176">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="104" priority="35" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I177:K177">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="34" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H179:K179">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="102" priority="33" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H178:K178">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="101" priority="32" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G152:K152 G162:K162">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="31" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G138:K138 H139:K139">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="99" priority="30" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G150:K151">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="98" priority="29" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G148:K149">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="97" priority="28" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G146:K147">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="96" priority="27" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G144:K145">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="26" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142:K142 H143:K143">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="94" priority="25" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G140:K141">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="93" priority="24" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G160:K161">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="92" priority="23" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G159:K159">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="91" priority="22" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G157:K158">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="90" priority="21" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H156:K156">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="89" priority="20" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G154:K155">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="88" priority="19" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G153:K153">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="87" priority="18" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G193:K193 H180:K185">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="G201:K201 H180:K185">
+    <cfRule type="cellIs" dxfId="86" priority="17" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G192:K192">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="G200:K200">
+    <cfRule type="cellIs" dxfId="85" priority="16" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191:K191">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="84" priority="15" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H190:K190">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="83" priority="14" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189:K189">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="82" priority="13" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188:K188">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="81" priority="12" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187:K187">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H186:K186">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H196:K196">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="H204:K204">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G199:K199">
+    <cfRule type="cellIs" dxfId="77" priority="8" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G198:K198">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G197:K197">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196:K196">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G195:K195">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G194:K194">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H193:K193">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="lessThanOrEqual">
+      <formula>TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H192:K192">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="lessThanOrEqual">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
